--- a/middle-to-gun/Excel/ProjectileProp_子弹表.xlsx
+++ b/middle-to-gun/Excel/ProjectileProp_子弹表.xlsx
@@ -44,7 +44,14 @@
     </font>
     <font>
       <sz val="9.75"/>
-      <color rgb="FF000000"/>
+      <color rgb="FFF54A45"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FFF54A45"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -58,14 +65,7 @@
     </font>
     <font>
       <sz val="9.75"/>
-      <color rgb="FFF54A45"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FFF54A45"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -490,7 +490,7 @@
   </cols>
   <sheetData>
     <row customHeight="true" ht="21" r="1">
-      <c r="A1" s="2" t="str">
+      <c r="A1" s="3" t="str">
         <v>int</v>
       </c>
       <c r="B1" t="str">
@@ -502,35 +502,35 @@
       <c r="D1" t="str">
         <v>string</v>
       </c>
-      <c r="E1" s="1" t="str">
+      <c r="E1" s="4" t="str">
         <v>vector3</v>
       </c>
-      <c r="F1" s="2" t="str">
+      <c r="F1" s="3" t="str">
         <v>string</v>
       </c>
     </row>
     <row customHeight="true" ht="21" r="2">
-      <c r="A2" s="2" t="str">
+      <c r="A2" s="3" t="str">
         <v>ID</v>
       </c>
-      <c r="B2" s="2" t="str">
+      <c r="B2" s="3" t="str">
         <v>PrefabId</v>
       </c>
-      <c r="C2" s="2" t="str">
+      <c r="C2" s="3" t="str">
         <v>FireSound</v>
       </c>
-      <c r="D2" s="2" t="str">
+      <c r="D2" s="3" t="str">
         <v>HitEffect</v>
       </c>
-      <c r="E2" s="2" t="str">
+      <c r="E2" s="3" t="str">
         <v>HitEffectScale</v>
       </c>
-      <c r="F2" s="2" t="str">
+      <c r="F2" s="3" t="str">
         <v>Des</v>
       </c>
     </row>
     <row customHeight="true" ht="21" r="3">
-      <c r="A3" s="2" t="str">
+      <c r="A3" s="3" t="str">
         <v>唯一ID</v>
       </c>
       <c r="B3" t="str">
@@ -542,520 +542,520 @@
       <c r="D3" t="str">
         <v>击中特效</v>
       </c>
-      <c r="E3" s="1" t="str">
+      <c r="E3" s="4" t="str">
         <v>击中特效缩放</v>
       </c>
-      <c r="F3" s="2" t="str">
+      <c r="F3" s="3" t="str">
         <v>描述</v>
       </c>
     </row>
     <row customHeight="true" ht="21" r="4"/>
     <row customHeight="true" ht="21" r="5">
-      <c r="A5" s="4">
+      <c r="A5" s="2">
         <v>1</v>
       </c>
-      <c r="B5" s="3" t="str">
+      <c r="B5" s="1" t="str">
         <v>5FE5766E4D27D1FC0ECC9DB29673A3EB</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="1">
         <v>208258</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="1">
         <v>27422</v>
       </c>
-      <c r="E5" s="3" t="str">
+      <c r="E5" s="1" t="str">
         <v>1|1|1</v>
       </c>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3">
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1">
         <v>208399</v>
       </c>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-      <c r="K5" s="3"/>
-      <c r="L5" s="3"/>
-      <c r="M5" s="3"/>
-      <c r="N5" s="3"/>
-      <c r="O5" s="3"/>
-      <c r="P5" s="3"/>
-      <c r="Q5" s="3"/>
-      <c r="R5" s="3"/>
-      <c r="S5" s="3"/>
-      <c r="T5" s="3"/>
-      <c r="U5" s="3"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1"/>
+      <c r="Q5" s="1"/>
+      <c r="R5" s="1"/>
+      <c r="S5" s="1"/>
+      <c r="T5" s="1"/>
+      <c r="U5" s="1"/>
     </row>
     <row customHeight="true" ht="21" r="6">
-      <c r="A6" s="4">
+      <c r="A6" s="2">
         <v>2</v>
       </c>
-      <c r="B6" s="3" t="str">
+      <c r="B6" s="1" t="str">
         <v>EAF62D0F4EF181ABB6C8AB83E876818B</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="2">
         <v>207772</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="1">
         <v>27422</v>
       </c>
-      <c r="E6" s="3" t="str">
+      <c r="E6" s="1" t="str">
         <v>1|1|1</v>
       </c>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
-      <c r="K6" s="3"/>
-      <c r="L6" s="3"/>
-      <c r="M6" s="3"/>
-      <c r="N6" s="3"/>
-      <c r="O6" s="3"/>
-      <c r="P6" s="3"/>
-      <c r="Q6" s="3"/>
-      <c r="R6" s="3"/>
-      <c r="S6" s="3"/>
-      <c r="T6" s="3"/>
-      <c r="U6" s="3"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
+      <c r="P6" s="1"/>
+      <c r="Q6" s="1"/>
+      <c r="R6" s="1"/>
+      <c r="S6" s="1"/>
+      <c r="T6" s="1"/>
+      <c r="U6" s="1"/>
     </row>
     <row customHeight="true" ht="21" r="7">
-      <c r="A7" s="4">
+      <c r="A7" s="2">
         <v>3</v>
       </c>
-      <c r="B7" s="3" t="str">
+      <c r="B7" s="1" t="str">
         <v>F32C6FB24570123F58CEFA81FC1DAC1F</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" s="1">
         <v>208268</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7" s="1">
         <v>27422</v>
       </c>
-      <c r="E7" s="3" t="str">
+      <c r="E7" s="1" t="str">
         <v>1|1|1</v>
       </c>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
-      <c r="K7" s="3"/>
-      <c r="L7" s="3"/>
-      <c r="M7" s="3"/>
-      <c r="N7" s="3"/>
-      <c r="O7" s="3"/>
-      <c r="P7" s="3"/>
-      <c r="Q7" s="3"/>
-      <c r="R7" s="3"/>
-      <c r="S7" s="3"/>
-      <c r="T7" s="3"/>
-      <c r="U7" s="3"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+      <c r="O7" s="1"/>
+      <c r="P7" s="1"/>
+      <c r="Q7" s="1"/>
+      <c r="R7" s="1"/>
+      <c r="S7" s="1"/>
+      <c r="T7" s="1"/>
+      <c r="U7" s="1"/>
     </row>
     <row customHeight="true" ht="21" r="8">
-      <c r="A8" s="4">
+      <c r="A8" s="2">
         <v>4</v>
       </c>
-      <c r="B8" s="3" t="str">
+      <c r="B8" s="1" t="str">
         <v>28BA1D7C44D241C468F19A94D9E63238</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8" s="1">
         <v>208374</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="1">
         <v>61006</v>
       </c>
-      <c r="E8" s="3" t="str">
+      <c r="E8" s="1" t="str">
         <v>1|1|1</v>
       </c>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3">
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1">
         <v>208166</v>
       </c>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3"/>
-      <c r="L8" s="3"/>
-      <c r="M8" s="3"/>
-      <c r="N8" s="3"/>
-      <c r="O8" s="3"/>
-      <c r="P8" s="3"/>
-      <c r="Q8" s="3"/>
-      <c r="R8" s="3"/>
-      <c r="S8" s="3"/>
-      <c r="T8" s="3"/>
-      <c r="U8" s="3"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
+      <c r="N8" s="1"/>
+      <c r="O8" s="1"/>
+      <c r="P8" s="1"/>
+      <c r="Q8" s="1"/>
+      <c r="R8" s="1"/>
+      <c r="S8" s="1"/>
+      <c r="T8" s="1"/>
+      <c r="U8" s="1"/>
     </row>
     <row customHeight="true" ht="21" r="9">
-      <c r="A9" s="4">
+      <c r="A9" s="2">
         <v>5</v>
       </c>
-      <c r="B9" s="3" t="str">
+      <c r="B9" s="1" t="str">
         <v>D07DD084490C6D2C3BC3A7A8BC4884C0</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C9" s="1">
         <v>208374</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9" s="1">
         <v>61006</v>
       </c>
-      <c r="E9" s="3" t="str">
+      <c r="E9" s="1" t="str">
         <v>1|1|1</v>
       </c>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
-      <c r="K9" s="3"/>
-      <c r="L9" s="3"/>
-      <c r="M9" s="3"/>
-      <c r="N9" s="3"/>
-      <c r="O9" s="3"/>
-      <c r="P9" s="3"/>
-      <c r="Q9" s="3"/>
-      <c r="R9" s="3"/>
-      <c r="S9" s="3"/>
-      <c r="T9" s="3"/>
-      <c r="U9" s="3"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+      <c r="O9" s="1"/>
+      <c r="P9" s="1"/>
+      <c r="Q9" s="1"/>
+      <c r="R9" s="1"/>
+      <c r="S9" s="1"/>
+      <c r="T9" s="1"/>
+      <c r="U9" s="1"/>
     </row>
     <row customHeight="true" ht="21" r="10">
-      <c r="A10" s="4">
+      <c r="A10" s="2">
         <v>6</v>
       </c>
-      <c r="B10" s="3" t="str">
+      <c r="B10" s="1" t="str">
         <v>A5C80A2E45063598223D4A8D042593A8</v>
       </c>
-      <c r="C10" s="3">
+      <c r="C10" s="1">
         <v>208166</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10" s="1">
         <v>265666</v>
       </c>
-      <c r="E10" s="3" t="str">
+      <c r="E10" s="1" t="str">
         <v>0.5|0.5|0.5</v>
       </c>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-      <c r="K10" s="3"/>
-      <c r="L10" s="3"/>
-      <c r="M10" s="3"/>
-      <c r="N10" s="3"/>
-      <c r="O10" s="3"/>
-      <c r="P10" s="3"/>
-      <c r="Q10" s="3"/>
-      <c r="R10" s="3"/>
-      <c r="S10" s="3"/>
-      <c r="T10" s="3"/>
-      <c r="U10" s="3"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
+      <c r="P10" s="1"/>
+      <c r="Q10" s="1"/>
+      <c r="R10" s="1"/>
+      <c r="S10" s="1"/>
+      <c r="T10" s="1"/>
+      <c r="U10" s="1"/>
     </row>
     <row customHeight="true" ht="21" r="11">
-      <c r="A11" s="4">
+      <c r="A11" s="2">
         <v>7</v>
       </c>
-      <c r="B11" s="3" t="str">
+      <c r="B11" s="1" t="str">
         <v>E2497FC44D0EC13158099584EED17776</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C11" s="1">
         <v>208374</v>
       </c>
-      <c r="D11" s="3">
+      <c r="D11" s="1">
         <v>61006</v>
       </c>
-      <c r="E11" s="3" t="str">
+      <c r="E11" s="1" t="str">
         <v>1|1|1</v>
       </c>
-      <c r="F11" s="3"/>
+      <c r="F11" s="1"/>
       <c r="G11">
         <v>208495</v>
       </c>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3">
+      <c r="H11" s="1"/>
+      <c r="I11" s="1">
         <v>287821</v>
       </c>
-      <c r="J11" s="3"/>
-      <c r="K11" s="3"/>
-      <c r="L11" s="3"/>
-      <c r="M11" s="3"/>
-      <c r="N11" s="3"/>
-      <c r="O11" s="3"/>
-      <c r="P11" s="3"/>
-      <c r="Q11" s="3"/>
-      <c r="R11" s="3"/>
-      <c r="S11" s="3"/>
-      <c r="T11" s="3"/>
-      <c r="U11" s="3"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="1"/>
+      <c r="P11" s="1"/>
+      <c r="Q11" s="1"/>
+      <c r="R11" s="1"/>
+      <c r="S11" s="1"/>
+      <c r="T11" s="1"/>
+      <c r="U11" s="1"/>
     </row>
     <row customHeight="true" ht="21" r="12">
-      <c r="A12" s="4">
+      <c r="A12" s="2">
         <v>8</v>
       </c>
-      <c r="B12" s="3" t="str">
+      <c r="B12" s="1" t="str">
         <v>24E7DF3146C2E5414BE4EE8AC093215B</v>
       </c>
-      <c r="C12" s="3">
+      <c r="C12" s="1">
         <v>208166</v>
       </c>
-      <c r="D12" s="3">
+      <c r="D12" s="1">
         <v>27422</v>
       </c>
-      <c r="E12" s="3" t="str">
+      <c r="E12" s="1" t="str">
         <v>1|1|1</v>
       </c>
-      <c r="F12" s="3">
+      <c r="F12" s="1">
         <v>208166</v>
       </c>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-      <c r="K12" s="3"/>
-      <c r="L12" s="3"/>
-      <c r="M12" s="3"/>
-      <c r="N12" s="3"/>
-      <c r="O12" s="3"/>
-      <c r="P12" s="3"/>
-      <c r="Q12" s="3"/>
-      <c r="R12" s="3"/>
-      <c r="S12" s="3"/>
-      <c r="T12" s="3"/>
-      <c r="U12" s="3"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
+      <c r="N12" s="1"/>
+      <c r="O12" s="1"/>
+      <c r="P12" s="1"/>
+      <c r="Q12" s="1"/>
+      <c r="R12" s="1"/>
+      <c r="S12" s="1"/>
+      <c r="T12" s="1"/>
+      <c r="U12" s="1"/>
     </row>
     <row customHeight="true" ht="21" r="13">
-      <c r="A13" s="4">
+      <c r="A13" s="2">
         <v>9</v>
       </c>
-      <c r="B13" s="3" t="str">
+      <c r="B13" s="1" t="str">
         <v>6EB015964A8F1DC44DF94595AA7593E1</v>
       </c>
-      <c r="C13" s="3">
+      <c r="C13" s="1">
         <v>208166</v>
       </c>
-      <c r="D13" s="3">
+      <c r="D13" s="1">
         <v>27421</v>
       </c>
-      <c r="E13" s="3" t="str">
+      <c r="E13" s="1" t="str">
+        <v>0.5|0.5|0.5</v>
+      </c>
+      <c r="F13" s="1" t="str">
+        <v>屠龙激光枪3号-已完善</v>
+      </c>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
+      <c r="N13" s="1"/>
+      <c r="O13" s="1"/>
+      <c r="P13" s="1"/>
+      <c r="Q13" s="1"/>
+      <c r="R13" s="1"/>
+      <c r="S13" s="1"/>
+      <c r="T13" s="1"/>
+      <c r="U13" s="1"/>
+    </row>
+    <row customHeight="true" ht="21" r="14">
+      <c r="A14" s="2">
+        <v>10</v>
+      </c>
+      <c r="B14" s="1" t="str">
+        <v>A3BC64CF4B29BD2D076E4194A2F9E40C</v>
+      </c>
+      <c r="C14" s="1">
+        <v>208374</v>
+      </c>
+      <c r="D14" s="1">
+        <v>61006</v>
+      </c>
+      <c r="E14" s="1" t="str">
         <v>1|1|1</v>
       </c>
-      <c r="F13" s="3" t="str">
-        <v>屠龙激光枪3号-已完善</v>
-      </c>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
-      <c r="K13" s="3"/>
-      <c r="L13" s="3"/>
-      <c r="M13" s="3"/>
-      <c r="N13" s="3"/>
-      <c r="O13" s="3"/>
-      <c r="P13" s="3"/>
-      <c r="Q13" s="3"/>
-      <c r="R13" s="3"/>
-      <c r="S13" s="3"/>
-      <c r="T13" s="3"/>
-      <c r="U13" s="3"/>
-    </row>
-    <row customHeight="true" ht="21" r="14">
-      <c r="A14" s="4">
-        <v>10</v>
-      </c>
-      <c r="B14" s="3" t="str">
-        <v>A3BC64CF4B29BD2D076E4194A2F9E40C</v>
-      </c>
-      <c r="C14" s="3">
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
+      <c r="N14" s="1"/>
+      <c r="O14" s="1"/>
+      <c r="P14" s="1"/>
+      <c r="Q14" s="1"/>
+      <c r="R14" s="1"/>
+      <c r="S14" s="1"/>
+      <c r="T14" s="1"/>
+      <c r="U14" s="1"/>
+    </row>
+    <row customHeight="true" ht="21" r="15">
+      <c r="A15" s="2">
+        <v>11</v>
+      </c>
+      <c r="B15" s="1" t="str">
+        <v>C7708014418743519AEB66A05118335F</v>
+      </c>
+      <c r="C15" s="1">
         <v>208374</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D15" s="1">
         <v>61006</v>
       </c>
-      <c r="E14" s="3" t="str">
+      <c r="E15" s="1" t="str">
         <v>1|1|1</v>
       </c>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
-      <c r="K14" s="3"/>
-      <c r="L14" s="3"/>
-      <c r="M14" s="3"/>
-      <c r="N14" s="3"/>
-      <c r="O14" s="3"/>
-      <c r="P14" s="3"/>
-      <c r="Q14" s="3"/>
-      <c r="R14" s="3"/>
-      <c r="S14" s="3"/>
-      <c r="T14" s="3"/>
-      <c r="U14" s="3"/>
-    </row>
-    <row customHeight="true" ht="21" r="15">
-      <c r="A15" s="4">
-        <v>11</v>
-      </c>
-      <c r="B15" s="3" t="str">
-        <v>C7708014418743519AEB66A05118335F</v>
-      </c>
-      <c r="C15" s="3">
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="1"/>
+      <c r="N15" s="1"/>
+      <c r="O15" s="1"/>
+      <c r="P15" s="1"/>
+      <c r="Q15" s="1"/>
+      <c r="R15" s="1"/>
+      <c r="S15" s="1"/>
+      <c r="T15" s="1"/>
+      <c r="U15" s="1"/>
+    </row>
+    <row customHeight="true" ht="21" r="16">
+      <c r="A16" s="2">
+        <v>12</v>
+      </c>
+      <c r="B16" s="1" t="str">
+        <v>592867B84C2ABC5BC11326A6588AC115</v>
+      </c>
+      <c r="C16" s="1">
+        <v>208495</v>
+      </c>
+      <c r="D16" s="1">
+        <v>61006</v>
+      </c>
+      <c r="E16" s="1" t="str">
+        <v>1|1|1</v>
+      </c>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
+      <c r="N16" s="1"/>
+      <c r="O16" s="1"/>
+      <c r="P16" s="1"/>
+      <c r="Q16" s="1"/>
+      <c r="R16" s="1"/>
+      <c r="S16" s="1"/>
+      <c r="T16" s="1"/>
+      <c r="U16" s="1"/>
+    </row>
+    <row customHeight="true" ht="21" r="17">
+      <c r="A17" s="2">
+        <v>13</v>
+      </c>
+      <c r="B17" s="1" t="str">
+        <v>4E31B836400E0183C925ACA18475115B</v>
+      </c>
+      <c r="C17" s="1">
         <v>208374</v>
       </c>
-      <c r="D15" s="3">
-        <v>61006</v>
-      </c>
-      <c r="E15" s="3" t="str">
-        <v>1|1|1</v>
-      </c>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
-      <c r="K15" s="3"/>
-      <c r="L15" s="3"/>
-      <c r="M15" s="3"/>
-      <c r="N15" s="3"/>
-      <c r="O15" s="3"/>
-      <c r="P15" s="3"/>
-      <c r="Q15" s="3"/>
-      <c r="R15" s="3"/>
-      <c r="S15" s="3"/>
-      <c r="T15" s="3"/>
-      <c r="U15" s="3"/>
-    </row>
-    <row customHeight="true" ht="21" r="16">
-      <c r="A16" s="4">
-        <v>12</v>
-      </c>
-      <c r="B16" s="3" t="str">
-        <v>592867B84C2ABC5BC11326A6588AC115</v>
-      </c>
-      <c r="C16" s="3">
-        <v>208495</v>
-      </c>
-      <c r="D16" s="3">
-        <v>61006</v>
-      </c>
-      <c r="E16" s="3" t="str">
-        <v>1|1|1</v>
-      </c>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
-      <c r="K16" s="3"/>
-      <c r="L16" s="3"/>
-      <c r="M16" s="3"/>
-      <c r="N16" s="3"/>
-      <c r="O16" s="3"/>
-      <c r="P16" s="3"/>
-      <c r="Q16" s="3"/>
-      <c r="R16" s="3"/>
-      <c r="S16" s="3"/>
-      <c r="T16" s="3"/>
-      <c r="U16" s="3"/>
-    </row>
-    <row customHeight="true" ht="21" r="17">
-      <c r="A17" s="4">
-        <v>13</v>
-      </c>
-      <c r="B17" s="3" t="str">
-        <v>4E31B836400E0183C925ACA18475115B</v>
-      </c>
-      <c r="C17" s="3">
+      <c r="D17" s="1">
+        <v>27421</v>
+      </c>
+      <c r="E17" s="1" t="str">
+        <v>0.5|0.5|0.5</v>
+      </c>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="1"/>
+      <c r="N17" s="1"/>
+      <c r="O17" s="1"/>
+      <c r="P17" s="1"/>
+      <c r="Q17" s="1"/>
+      <c r="R17" s="1"/>
+      <c r="S17" s="1"/>
+      <c r="T17" s="1"/>
+      <c r="U17" s="1"/>
+    </row>
+    <row customHeight="true" ht="21" r="18">
+      <c r="A18" s="2">
+        <v>14</v>
+      </c>
+      <c r="B18" s="1" t="str">
+        <v>4C18E7A440AD7AE26CFA71AD44B70903</v>
+      </c>
+      <c r="C18" s="1">
         <v>208374</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D18" s="1">
         <v>27421</v>
       </c>
-      <c r="E17" s="3" t="str">
-        <v>1|1|1</v>
-      </c>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
-      <c r="K17" s="3"/>
-      <c r="L17" s="3"/>
-      <c r="M17" s="3"/>
-      <c r="N17" s="3"/>
-      <c r="O17" s="3"/>
-      <c r="P17" s="3"/>
-      <c r="Q17" s="3"/>
-      <c r="R17" s="3"/>
-      <c r="S17" s="3"/>
-      <c r="T17" s="3"/>
-      <c r="U17" s="3"/>
-    </row>
-    <row customHeight="true" ht="21" r="18">
-      <c r="A18" s="4">
-        <v>14</v>
-      </c>
-      <c r="B18" s="3" t="str">
-        <v>4C18E7A440AD7AE26CFA71AD44B70903</v>
-      </c>
-      <c r="C18" s="3">
-        <v>208374</v>
-      </c>
-      <c r="D18" s="3">
+      <c r="E18" s="1" t="str">
+        <v>0.5|0.5|0.5</v>
+      </c>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="1"/>
+      <c r="N18" s="1"/>
+      <c r="O18" s="1"/>
+      <c r="P18" s="1"/>
+      <c r="Q18" s="1"/>
+      <c r="R18" s="1"/>
+      <c r="S18" s="1"/>
+      <c r="T18" s="1"/>
+      <c r="U18" s="1"/>
+    </row>
+    <row customHeight="true" ht="21" r="19">
+      <c r="A19" s="2">
+        <v>15</v>
+      </c>
+      <c r="B19" s="1" t="str">
+        <v>1405575C47698FE0FC41F0B7E104529E</v>
+      </c>
+      <c r="C19" s="1">
+        <v>208048</v>
+      </c>
+      <c r="D19" s="1">
         <v>27421</v>
       </c>
-      <c r="E18" s="3" t="str">
-        <v>1|1|1</v>
-      </c>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
-      <c r="J18" s="3"/>
-      <c r="K18" s="3"/>
-      <c r="L18" s="3"/>
-      <c r="M18" s="3"/>
-      <c r="N18" s="3"/>
-      <c r="O18" s="3"/>
-      <c r="P18" s="3"/>
-      <c r="Q18" s="3"/>
-      <c r="R18" s="3"/>
-      <c r="S18" s="3"/>
-      <c r="T18" s="3"/>
-      <c r="U18" s="3"/>
-    </row>
-    <row customHeight="true" ht="21" r="19">
-      <c r="A19" s="4">
-        <v>15</v>
-      </c>
-      <c r="B19" s="3" t="str">
-        <v>1405575C47698FE0FC41F0B7E104529E</v>
-      </c>
-      <c r="C19" s="3">
-        <v>208048</v>
-      </c>
-      <c r="D19" s="3">
-        <v>27421</v>
-      </c>
-      <c r="E19" s="3" t="str">
-        <v>1|1|1</v>
-      </c>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
-      <c r="J19" s="3"/>
-      <c r="K19" s="3"/>
-      <c r="L19" s="3"/>
-      <c r="M19" s="3"/>
-      <c r="N19" s="3"/>
-      <c r="O19" s="3"/>
-      <c r="P19" s="3"/>
-      <c r="Q19" s="3"/>
-      <c r="R19" s="3"/>
-      <c r="S19" s="3"/>
-      <c r="T19" s="3"/>
-      <c r="U19" s="3"/>
+      <c r="E19" s="1" t="str">
+        <v>0.5|0.5|0.5</v>
+      </c>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="1"/>
+      <c r="N19" s="1"/>
+      <c r="O19" s="1"/>
+      <c r="P19" s="1"/>
+      <c r="Q19" s="1"/>
+      <c r="R19" s="1"/>
+      <c r="S19" s="1"/>
+      <c r="T19" s="1"/>
+      <c r="U19" s="1"/>
     </row>
     <row customHeight="true" ht="21" r="20"/>
   </sheetData>
